--- a/server/storage/template.xlsx
+++ b/server/storage/template.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\sms-qr\server\storage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AE7A8F-F2CB-45B9-893D-88A32006EF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Attendance" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Attendance" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,56 +27,53 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t xml:space="preserve">School Name:</t>
+    <t>School Name:</t>
   </si>
   <si>
-    <t xml:space="preserve">Passi National High School</t>
+    <t>Passi National High School</t>
   </si>
   <si>
-    <t xml:space="preserve">Month:</t>
+    <t>Month:</t>
   </si>
   <si>
-    <t xml:space="preserve">Year:</t>
+    <t>Year:</t>
   </si>
   <si>
     <t xml:space="preserve">Generated By: </t>
   </si>
   <si>
-    <t xml:space="preserve">Date Generated:</t>
+    <t>Date Generated:</t>
   </si>
   <si>
-    <t xml:space="preserve">Legend:</t>
+    <t>Legend:</t>
   </si>
   <si>
-    <t xml:space="preserve">Present</t>
+    <t>Present</t>
   </si>
   <si>
-    <t xml:space="preserve">Weekend</t>
+    <t>Weekend</t>
   </si>
   <si>
-    <t xml:space="preserve">Absent</t>
+    <t>Absent</t>
   </si>
   <si>
-    <t xml:space="preserve">ID</t>
+    <t>ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
+    <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Total</t>
+    <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve"># Absents</t>
+    <t># Absents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -80,22 +82,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -110,7 +97,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -151,293 +138,327 @@
     </fill>
   </fills>
   <borders count="17">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -496,269 +517,577 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="L13" sqref="K13:L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="108.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="108.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="3" style="0" width="3.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="9.85"/>
+    <col min="1" max="1" width="32.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="33" width="3.28515625" customWidth="1"/>
+    <col min="34" max="34" width="7.5703125" customWidth="1"/>
+    <col min="35" max="35" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="4" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5" t="s">
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="14" t="s">
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="16" t="s">
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="16" t="s">
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AI3" s="16"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="19" t="s">
+      <c r="AI3" s="3"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="21"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="24" t="n">
+      <c r="C5" s="24">
         <v>1</v>
       </c>
-      <c r="D5" s="24" t="n">
+      <c r="D5" s="24">
         <v>2</v>
       </c>
-      <c r="E5" s="24" t="n">
+      <c r="E5" s="24">
         <v>3</v>
       </c>
-      <c r="F5" s="24" t="n">
+      <c r="F5" s="24">
         <v>4</v>
       </c>
-      <c r="G5" s="24" t="n">
+      <c r="G5" s="24">
         <v>5</v>
       </c>
-      <c r="H5" s="24" t="n">
+      <c r="H5" s="24">
         <v>6</v>
       </c>
-      <c r="I5" s="24" t="n">
+      <c r="I5" s="24">
         <v>7</v>
       </c>
-      <c r="J5" s="24" t="n">
+      <c r="J5" s="24">
         <v>8</v>
       </c>
-      <c r="K5" s="24" t="n">
+      <c r="K5" s="24">
         <v>9</v>
       </c>
-      <c r="L5" s="24" t="n">
+      <c r="L5" s="24">
         <v>10</v>
       </c>
-      <c r="M5" s="24" t="n">
+      <c r="M5" s="24">
         <v>11</v>
       </c>
-      <c r="N5" s="24" t="n">
+      <c r="N5" s="24">
         <v>12</v>
       </c>
-      <c r="O5" s="24" t="n">
+      <c r="O5" s="24">
         <v>13</v>
       </c>
-      <c r="P5" s="24" t="n">
+      <c r="P5" s="24">
         <v>14</v>
       </c>
-      <c r="Q5" s="24" t="n">
+      <c r="Q5" s="24">
         <v>15</v>
       </c>
-      <c r="R5" s="24" t="n">
+      <c r="R5" s="24">
         <v>16</v>
       </c>
-      <c r="S5" s="24" t="n">
+      <c r="S5" s="24">
         <v>17</v>
       </c>
-      <c r="T5" s="24" t="n">
+      <c r="T5" s="24">
         <v>18</v>
       </c>
-      <c r="U5" s="24" t="n">
+      <c r="U5" s="24">
         <v>19</v>
       </c>
-      <c r="V5" s="24" t="n">
+      <c r="V5" s="24">
         <v>20</v>
       </c>
-      <c r="W5" s="24" t="n">
+      <c r="W5" s="24">
         <v>21</v>
       </c>
-      <c r="X5" s="24" t="n">
+      <c r="X5" s="24">
         <v>22</v>
       </c>
-      <c r="Y5" s="24" t="n">
+      <c r="Y5" s="24">
         <v>23</v>
       </c>
-      <c r="Z5" s="24" t="n">
+      <c r="Z5" s="24">
         <v>24</v>
       </c>
-      <c r="AA5" s="24" t="n">
+      <c r="AA5" s="24">
         <v>25</v>
       </c>
-      <c r="AB5" s="24" t="n">
+      <c r="AB5" s="24">
         <v>26</v>
       </c>
-      <c r="AC5" s="25" t="n">
+      <c r="AC5" s="25">
         <v>27</v>
       </c>
-      <c r="AD5" s="25" t="n">
+      <c r="AD5" s="25">
         <v>28</v>
       </c>
-      <c r="AE5" s="25" t="n">
+      <c r="AE5" s="25">
         <v>29</v>
       </c>
-      <c r="AF5" s="25" t="n">
+      <c r="AF5" s="25">
         <v>30</v>
       </c>
-      <c r="AG5" s="25" t="n">
+      <c r="AG5" s="25">
         <v>31</v>
       </c>
       <c r="AH5" s="25" t="s">
@@ -768,7 +1097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -805,7 +1134,7 @@
       <c r="AH6" s="28"/>
       <c r="AI6" s="29"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -842,7 +1171,7 @@
       <c r="AH7" s="31"/>
       <c r="AI7" s="32"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -879,7 +1208,7 @@
       <c r="AH8" s="31"/>
       <c r="AI8" s="32"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -916,7 +1245,7 @@
       <c r="AH9" s="31"/>
       <c r="AI9" s="32"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -953,7 +1282,7 @@
       <c r="AH10" s="31"/>
       <c r="AI10" s="32"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -990,7 +1319,7 @@
       <c r="AH11" s="31"/>
       <c r="AI11" s="32"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -1027,7 +1356,7 @@
       <c r="AH12" s="31"/>
       <c r="AI12" s="32"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -1064,7 +1393,7 @@
       <c r="AH13" s="31"/>
       <c r="AI13" s="32"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -1101,7 +1430,7 @@
       <c r="AH14" s="31"/>
       <c r="AI14" s="32"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -1138,7 +1467,7 @@
       <c r="AH15" s="31"/>
       <c r="AI15" s="32"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -1175,7 +1504,7 @@
       <c r="AH16" s="31"/>
       <c r="AI16" s="32"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -1212,7 +1541,7 @@
       <c r="AH17" s="31"/>
       <c r="AI17" s="32"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -1249,7 +1578,7 @@
       <c r="AH18" s="31"/>
       <c r="AI18" s="32"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
@@ -1286,7 +1615,7 @@
       <c r="AH19" s="31"/>
       <c r="AI19" s="32"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -1323,7 +1652,7 @@
       <c r="AH20" s="31"/>
       <c r="AI20" s="32"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
@@ -1360,7 +1689,7 @@
       <c r="AH21" s="31"/>
       <c r="AI21" s="32"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -1397,7 +1726,7 @@
       <c r="AH22" s="31"/>
       <c r="AI22" s="32"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
@@ -1434,7 +1763,7 @@
       <c r="AH23" s="31"/>
       <c r="AI23" s="32"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
@@ -1471,7 +1800,7 @@
       <c r="AH24" s="31"/>
       <c r="AI24" s="32"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
@@ -1508,7 +1837,7 @@
       <c r="AH25" s="31"/>
       <c r="AI25" s="32"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
@@ -1545,7 +1874,7 @@
       <c r="AH26" s="31"/>
       <c r="AI26" s="32"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
@@ -1582,7 +1911,7 @@
       <c r="AH27" s="31"/>
       <c r="AI27" s="32"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -1619,7 +1948,7 @@
       <c r="AH28" s="31"/>
       <c r="AI28" s="32"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
@@ -1656,7 +1985,7 @@
       <c r="AH29" s="31"/>
       <c r="AI29" s="32"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -1693,7 +2022,7 @@
       <c r="AH30" s="31"/>
       <c r="AI30" s="32"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -1730,7 +2059,7 @@
       <c r="AH31" s="31"/>
       <c r="AI31" s="32"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -1767,7 +2096,7 @@
       <c r="AH32" s="31"/>
       <c r="AI32" s="32"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -1804,7 +2133,7 @@
       <c r="AH33" s="31"/>
       <c r="AI33" s="32"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
@@ -1843,11 +2172,8 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AH4:AI4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:Q2"/>
     <mergeCell ref="R2:V2"/>
@@ -1855,13 +2181,15 @@
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="C1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.613888888888889" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="14" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.7" right="0.61388888888888904" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="14" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri,Bold"&amp;16SMS-QR Monthly Attendance Sheet</oddHeader>
     <oddFooter>&amp;LThis sheet is machine generated.</oddFooter>
   </headerFooter>
